--- a/db/data/products.xlsx
+++ b/db/data/products.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="620" windowWidth="28560" windowHeight="16300" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
     <sheet name="Category" sheetId="2" r:id="rId2"/>
+    <sheet name="seller" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="157">
   <si>
     <t>product_id</t>
   </si>
@@ -607,12 +608,150 @@
   <si>
     <t>Tiêu khiển</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>seller 1</t>
+  </si>
+  <si>
+    <t>seller 2</t>
+  </si>
+  <si>
+    <t>seller 3</t>
+  </si>
+  <si>
+    <t>seller 4</t>
+  </si>
+  <si>
+    <t>seller 5</t>
+  </si>
+  <si>
+    <t>seller 6</t>
+  </si>
+  <si>
+    <t>seller 7</t>
+  </si>
+  <si>
+    <t>seller 8</t>
+  </si>
+  <si>
+    <t>seller 9</t>
+  </si>
+  <si>
+    <t>seller 10</t>
+  </si>
+  <si>
+    <t>seller 11</t>
+  </si>
+  <si>
+    <t>seller 12</t>
+  </si>
+  <si>
+    <t>seller 13</t>
+  </si>
+  <si>
+    <t>seller 14</t>
+  </si>
+  <si>
+    <t>seller 15</t>
+  </si>
+  <si>
+    <t>seller 16</t>
+  </si>
+  <si>
+    <t>seller 17</t>
+  </si>
+  <si>
+    <t>seller 18</t>
+  </si>
+  <si>
+    <t>seller 19</t>
+  </si>
+  <si>
+    <t>seller 20</t>
+  </si>
+  <si>
+    <t>seller 21</t>
+  </si>
+  <si>
+    <t>0931234567</t>
+  </si>
+  <si>
+    <t>0931234568</t>
+  </si>
+  <si>
+    <t>0931234569</t>
+  </si>
+  <si>
+    <t>0931234570</t>
+  </si>
+  <si>
+    <t>0931234571</t>
+  </si>
+  <si>
+    <t>0931234572</t>
+  </si>
+  <si>
+    <t>0931234573</t>
+  </si>
+  <si>
+    <t>0931234574</t>
+  </si>
+  <si>
+    <t>0931234575</t>
+  </si>
+  <si>
+    <t>0931234576</t>
+  </si>
+  <si>
+    <t>0931234577</t>
+  </si>
+  <si>
+    <t>0931234578</t>
+  </si>
+  <si>
+    <t>0931234579</t>
+  </si>
+  <si>
+    <t>0931234580</t>
+  </si>
+  <si>
+    <t>0931234581</t>
+  </si>
+  <si>
+    <t>0931234582</t>
+  </si>
+  <si>
+    <t>0931234583</t>
+  </si>
+  <si>
+    <t>0931234584</t>
+  </si>
+  <si>
+    <t>0931234585</t>
+  </si>
+  <si>
+    <t>0931234586</t>
+  </si>
+  <si>
+    <t>0931234587</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -691,6 +830,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -730,10 +875,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -795,8 +941,11 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -30414,7 +30563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
@@ -30522,4 +30671,289 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>